--- a/hist/stanice_kvalita_ben_20241113.xlsx
+++ b/hist/stanice_kvalita_ben_20241113.xlsx
@@ -2027,7 +2027,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2024-11-11T10:22:33Z</t>
+          <t>2024-11-13T04:32:33Z</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2024-11-10T09:45:12Z</t>
+          <t>2024-11-13T04:32:33Z</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2024-11-12T04:56:00Z</t>
+          <t>2024-11-13T05:41:44Z</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2024-11-11T10:55:58Z</t>
+          <t>2024-11-13T05:41:44Z</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2024-11-11T14:52:22Z</t>
+          <t>2024-11-13T07:28:57Z</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2024-11-06T16:08:43Z</t>
+          <t>2024-11-13T07:28:57Z</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2024-11-06T05:59:13Z</t>
+          <t>2024-11-13T05:11:33Z</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2024-11-11T05:43:24Z</t>
+          <t>2024-11-13T05:11:33Z</t>
         </is>
       </c>
       <c r="M126" t="n">
